--- a/video_base_index.xlsx
+++ b/video_base_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\python\karate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE72EE7D-AF12-4954-926A-FFD4D0027A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94BAB86-1B6C-481D-B89D-3D0D31F05A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="2400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13830" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="199">
   <si>
     <t>Камера_1</t>
   </si>
@@ -69,9 +69,6 @@
     <t>20240209_183607.mp4</t>
   </si>
   <si>
-    <t>20240209_181632.mp4</t>
-  </si>
-  <si>
     <t>20240209_181633.mp4</t>
   </si>
   <si>
@@ -501,14 +498,140 @@
     <t>Тайкёку соно ити 1.mp4</t>
   </si>
   <si>
-    <t>Тайкеку соно ити 2.lbl</t>
+    <t>Тайкеку соно ни 1.mp4</t>
+  </si>
+  <si>
+    <t>Тайкеку соно ни 1_20240209_181632.mp4</t>
+  </si>
+  <si>
+    <t>S01</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>S03</t>
+  </si>
+  <si>
+    <t>S04</t>
+  </si>
+  <si>
+    <t>S05</t>
+  </si>
+  <si>
+    <t>S06</t>
+  </si>
+  <si>
+    <t>S07</t>
+  </si>
+  <si>
+    <t>S08</t>
+  </si>
+  <si>
+    <t>S09</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S01.csv</t>
+  </si>
+  <si>
+    <t>S02.csv</t>
+  </si>
+  <si>
+    <t>S03.csv</t>
+  </si>
+  <si>
+    <t>S04.csv</t>
+  </si>
+  <si>
+    <t>S05.csv</t>
+  </si>
+  <si>
+    <t>S06.csv</t>
+  </si>
+  <si>
+    <t>S07.csv</t>
+  </si>
+  <si>
+    <t>S08.csv</t>
+  </si>
+  <si>
+    <t>S09.csv</t>
+  </si>
+  <si>
+    <t>S10.csv</t>
+  </si>
+  <si>
+    <t>S11.csv</t>
+  </si>
+  <si>
+    <t>S12.csv</t>
+  </si>
+  <si>
+    <t>S13.csv</t>
+  </si>
+  <si>
+    <t>S14.csv</t>
+  </si>
+  <si>
+    <t>S15.csv</t>
+  </si>
+  <si>
+    <t>S16.csv</t>
+  </si>
+  <si>
+    <t>S17.csv</t>
+  </si>
+  <si>
+    <t>S18.csv</t>
+  </si>
+  <si>
+    <t>S19.csv</t>
+  </si>
+  <si>
+    <t>S20.csv</t>
+  </si>
+  <si>
+    <t>fcsv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +721,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -887,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -936,7 +1064,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -944,19 +1071,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1532,23 +1696,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="B1:O22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="B1:O22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="N_p" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Камера_1" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="номер_кадра_1" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Generate_Pose_1" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Камера_2" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="номер_кадра_2" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Generate_Pose_2" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Камера_3" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="номер_кадра_3" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Generate_Pose_3" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Камера_4" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="номер_кадра_4" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Generate_Pose_4" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица2" displayName="Таблица2" ref="B1:P22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="B1:P22" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="N_p" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{D14BF66A-CB0B-453B-A425-FEC694D17C5B}" name="fcsv" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Камера_1" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="номер_кадра_1" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Generate_Pose_1" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Камера_2" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="номер_кадра_2" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Generate_Pose_2" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Камера_3" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="номер_кадра_3" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Generate_Pose_3" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Камера_4" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="номер_кадра_4" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Generate_Pose_4" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1752,21 +1917,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
     <col min="9" max="9" width="21.42578125" customWidth="1"/>
@@ -1782,1615 +1947,1683 @@
     <col min="23" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="M1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="P1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="U1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="X1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AA1" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>135</v>
+      <c r="B2" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>1000.0000000000001</v>
       </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2">
         <v>568</v>
       </c>
-      <c r="I2" s="23">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>502</v>
       </c>
-      <c r="L2" s="35">
-        <v>0</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="M2" s="35">
+        <v>0</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="O2" s="3">
         <v>-213.6</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>568</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>628</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>572</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>546</v>
       </c>
-      <c r="T2" s="15">
+      <c r="U2" s="15">
         <v>9.4710000000000001</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10.449</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>9.5510000000000002</v>
       </c>
-      <c r="W2" s="16">
+      <c r="X2" s="16">
         <v>9.1039999999999992</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>60</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>1</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>136</v>
+      <c r="B3" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>736</v>
       </c>
-      <c r="F3" s="23">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2">
         <v>408</v>
       </c>
-      <c r="I3" s="23">
-        <v>0</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="23">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>410</v>
       </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="M3" s="35">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="3">
         <v>-139.19999999999999</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>467</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>508</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>514</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>478</v>
       </c>
-      <c r="T3" s="15">
+      <c r="U3" s="15">
         <v>7.7679999999999998</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>8.5139999999999993</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>8.5589999999999993</v>
       </c>
-      <c r="W3" s="16">
+      <c r="X3" s="16">
         <v>7.9749999999999996</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>60</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
         <v>2</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>137</v>
+      <c r="B4" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>960</v>
       </c>
-      <c r="F4" s="23">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="2">
         <v>497</v>
       </c>
-      <c r="I4" s="23">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="23">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>536</v>
       </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="35">
+        <v>0</v>
+      </c>
+      <c r="N4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>-172.79999999999998</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>365</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>386</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>430</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>385</v>
       </c>
-      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
       <c r="V4"/>
-      <c r="W4" s="16"/>
-      <c r="X4">
+      <c r="X4" s="16"/>
+      <c r="Y4">
         <v>60</v>
       </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>3</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>138</v>
+      <c r="B5" s="41" t="s">
+        <v>137</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="2">
         <v>750</v>
       </c>
-      <c r="F5" s="23">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
         <v>409</v>
       </c>
-      <c r="I5" s="23">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="23">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>443</v>
       </c>
-      <c r="L5" s="35">
-        <v>0</v>
-      </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="35">
+        <v>0</v>
+      </c>
+      <c r="N5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-110.4</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>378</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>406</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>447</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>416</v>
       </c>
-      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
       <c r="V5"/>
-      <c r="W5" s="16"/>
-      <c r="X5">
+      <c r="X5" s="16"/>
+      <c r="Y5">
         <v>60</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>4</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>139</v>
+      <c r="B6" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>608</v>
       </c>
-      <c r="F6" s="23">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2">
         <v>323</v>
       </c>
-      <c r="I6" s="23">
-        <v>0</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="23">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>360</v>
       </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="35">
+        <v>0</v>
+      </c>
+      <c r="N6" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>-93.600000000000009</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>316</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>333</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>376</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>332</v>
       </c>
-      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
       <c r="V6"/>
-      <c r="W6" s="16"/>
-      <c r="X6">
+      <c r="X6" s="16"/>
+      <c r="Y6">
         <v>60</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>5</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="2">
+        <v>694</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="2">
+        <v>411</v>
+      </c>
+      <c r="J7" s="23">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
-        <v>694</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="2">
-        <v>411</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>388</v>
       </c>
-      <c r="L7" s="35">
-        <v>0</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="M7" s="35">
+        <v>0</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O7" s="3">
         <v>-184.8</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>400</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>471</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>453</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>359</v>
       </c>
-      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
       <c r="V7"/>
-      <c r="W7" s="16"/>
-      <c r="X7">
+      <c r="X7" s="16"/>
+      <c r="Y7">
         <v>60</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <v>6</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>784</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="2">
+        <v>382</v>
+      </c>
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
-        <v>784</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="2">
-        <v>382</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>395</v>
       </c>
-      <c r="L8" s="35">
-        <v>0</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="M8" s="35">
+        <v>0</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" s="3">
         <v>-184.8</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>448</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>444</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>461</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>418</v>
       </c>
-      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
       <c r="V8"/>
-      <c r="W8" s="16"/>
-      <c r="X8">
+      <c r="X8" s="16"/>
+      <c r="Y8">
         <v>60</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
         <v>7</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>752</v>
       </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="2">
         <v>442</v>
       </c>
-      <c r="I9" s="23">
-        <v>0</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="2">
         <v>432</v>
       </c>
-      <c r="L9" s="35">
-        <v>0</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="M9" s="35">
+        <v>0</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="3">
         <v>-127.2</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>462</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>521</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>515</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>478</v>
       </c>
-      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
       <c r="V9"/>
-      <c r="W9" s="16"/>
-      <c r="X9">
+      <c r="X9" s="16"/>
+      <c r="Y9">
         <v>60</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <v>8</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
+        <v>186</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2">
         <v>612</v>
       </c>
-      <c r="F10" s="23">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2">
         <v>364</v>
       </c>
-      <c r="I10" s="23">
-        <v>0</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
         <v>347</v>
       </c>
-      <c r="L10" s="35">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="M10" s="35">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="3">
         <v>-98.399999999999991</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>312</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>381</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>354</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>332</v>
       </c>
-      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
       <c r="V10"/>
-      <c r="W10" s="16"/>
-      <c r="X10">
+      <c r="X10" s="16"/>
+      <c r="Y10">
         <v>60</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
       <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
         <v>9</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2">
+        <v>922</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2">
+        <v>467</v>
+      </c>
+      <c r="J11" s="23">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="2">
-        <v>922</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2">
-        <v>467</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>487</v>
       </c>
-      <c r="L11" s="35">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="M11" s="35">
+        <v>0</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="3">
         <v>-158.4</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>588</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>603</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>629</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>615</v>
       </c>
-      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
       <c r="V11"/>
-      <c r="W11" s="16"/>
-      <c r="X11">
+      <c r="X11" s="16"/>
+      <c r="Y11">
         <v>60</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
       <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <v>10</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="2">
+        <v>188</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
         <v>766</v>
       </c>
-      <c r="F12" s="23">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="2">
         <v>436</v>
       </c>
-      <c r="I12" s="23">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="2">
         <v>440</v>
       </c>
-      <c r="L12" s="35">
-        <v>0</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="M12" s="35">
+        <v>0</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="3">
         <v>-120</v>
       </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>402</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>458</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>467</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>423</v>
       </c>
-      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
       <c r="V12"/>
-      <c r="W12" s="16"/>
-      <c r="X12">
+      <c r="X12" s="16"/>
+      <c r="Y12">
         <v>60</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
         <v>11</v>
       </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="26">
+        <v>902</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2">
+        <v>433</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="26">
-        <v>902</v>
-      </c>
-      <c r="F13" s="23">
-        <v>0</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="2">
-        <v>433</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>495</v>
       </c>
-      <c r="L13" s="35">
-        <v>0</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="3">
+      <c r="M13" s="35">
+        <v>0</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="3">
         <v>-158.4</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13">
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>543</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>530</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>593</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>565</v>
       </c>
-      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
       <c r="V13"/>
-      <c r="W13" s="16"/>
-      <c r="X13">
+      <c r="X13" s="16"/>
+      <c r="Y13">
         <v>60</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
         <v>12</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
         <v>614</v>
       </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="23">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="2">
         <v>320</v>
       </c>
-      <c r="I14" s="23">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="2">
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="2">
         <v>331</v>
       </c>
-      <c r="L14" s="35">
-        <v>0</v>
-      </c>
-      <c r="M14" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="35">
+        <v>0</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="3">
         <v>-108</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>320</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>327</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>347</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>337</v>
       </c>
-      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
       <c r="V14"/>
-      <c r="W14" s="16"/>
-      <c r="X14">
+      <c r="X14" s="16"/>
+      <c r="Y14">
         <v>60</v>
       </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
       <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
         <v>13</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="4">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>672</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2">
+        <v>340</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2">
-        <v>672</v>
-      </c>
-      <c r="F15" s="23">
-        <v>0</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="2">
-        <v>340</v>
-      </c>
-      <c r="I15" s="23">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>384</v>
       </c>
-      <c r="L15" s="35">
-        <v>0</v>
-      </c>
-      <c r="M15" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="M15" s="35">
+        <v>0</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="3">
         <v>-98.399999999999991</v>
       </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>392</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>390</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>444</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>418</v>
       </c>
-      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
       <c r="V15"/>
-      <c r="W15" s="16"/>
-      <c r="X15">
+      <c r="X15" s="16"/>
+      <c r="Y15">
         <v>60</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
         <v>14</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="4">
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2">
+        <v>192</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="2">
         <v>682</v>
       </c>
-      <c r="F16" s="23">
-        <v>0</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="23">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="2">
         <v>330</v>
       </c>
-      <c r="I16" s="23">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="J16" s="23">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="2">
         <v>380</v>
       </c>
-      <c r="L16" s="35">
-        <v>0</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="3">
+      <c r="M16" s="35">
+        <v>0</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="3">
         <v>-132</v>
       </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>370</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>363</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>418</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>370</v>
       </c>
-      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
       <c r="V16"/>
-      <c r="W16" s="16"/>
-      <c r="X16">
+      <c r="X16" s="16"/>
+      <c r="Y16">
         <v>60</v>
       </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
       <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
         <v>15</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2">
         <v>626</v>
       </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="2">
         <v>270</v>
       </c>
-      <c r="I17" s="23">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="J17" s="23">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="2">
         <v>343</v>
       </c>
-      <c r="L17" s="35">
-        <v>0</v>
-      </c>
-      <c r="M17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="M17" s="35">
+        <v>0</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" s="3">
         <v>-112.8</v>
       </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>333</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>288</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>369</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>344</v>
       </c>
-      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
       <c r="V17"/>
-      <c r="W17" s="16"/>
-      <c r="X17">
+      <c r="X17" s="16"/>
+      <c r="Y17">
         <v>60</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
       <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
         <v>16</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="4">
         <v>2</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2">
+        <v>194</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="2">
         <v>902</v>
       </c>
-      <c r="F18" s="23">
-        <v>0</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="2">
         <v>488</v>
       </c>
-      <c r="I18" s="23">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18" s="23">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2">
         <v>480</v>
       </c>
-      <c r="L18" s="35">
-        <v>0</v>
-      </c>
-      <c r="M18" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M18" s="35">
+        <v>0</v>
+      </c>
+      <c r="N18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="3">
         <v>-112.8</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18">
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>546</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>589</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>585</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>618</v>
       </c>
-      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
       <c r="V18"/>
-      <c r="W18" s="16"/>
-      <c r="X18">
+      <c r="X18" s="16"/>
+      <c r="Y18">
         <v>60</v>
       </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>17</v>
       </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2">
+        <v>195</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="2">
         <v>918</v>
       </c>
-      <c r="F19" s="23">
-        <v>0</v>
-      </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="23">
+        <v>0</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="2">
+        <v>460</v>
+      </c>
+      <c r="J19" s="23">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="2">
+        <v>488</v>
+      </c>
+      <c r="M19" s="35">
+        <v>0</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-187.20000000000002</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>555</v>
+      </c>
+      <c r="R19">
+        <v>564</v>
+      </c>
+      <c r="S19">
+        <v>596</v>
+      </c>
+      <c r="T19">
+        <v>555</v>
+      </c>
+      <c r="U19" s="15"/>
+      <c r="V19"/>
+      <c r="X19" s="16"/>
+      <c r="Y19">
         <v>60</v>
       </c>
-      <c r="H19" s="2">
-        <v>460</v>
-      </c>
-      <c r="I19" s="23">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="2">
-        <v>488</v>
-      </c>
-      <c r="L19" s="35">
-        <v>0</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="3">
-        <v>-187.20000000000002</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>555</v>
-      </c>
-      <c r="Q19">
-        <v>564</v>
-      </c>
-      <c r="R19">
-        <v>596</v>
-      </c>
-      <c r="S19">
-        <v>555</v>
-      </c>
-      <c r="T19" s="15"/>
-      <c r="V19"/>
-      <c r="W19" s="16"/>
-      <c r="X19">
-        <v>60</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
       <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
         <v>18</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4">
         <v>4</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="2">
         <v>762</v>
       </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="23">
+        <v>0</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="2">
         <v>359</v>
       </c>
-      <c r="I20" s="23">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="J20" s="23">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="2">
         <v>404</v>
       </c>
-      <c r="L20" s="35">
-        <v>0</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M20" s="35">
+        <v>0</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" s="3">
         <v>-153.6</v>
       </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>408</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>391</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>440</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>411</v>
       </c>
-      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
       <c r="V20"/>
-      <c r="W20" s="16"/>
-      <c r="X20">
+      <c r="X20" s="16"/>
+      <c r="Y20">
         <v>60</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
         <v>19</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7">
+        <v>714</v>
+      </c>
+      <c r="G21" s="23">
+        <v>0</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="7">
+        <v>358</v>
+      </c>
+      <c r="J21" s="23">
+        <v>0</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="7">
-        <v>714</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>358</v>
-      </c>
-      <c r="I21" s="23">
-        <v>0</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="L21" s="7">
         <v>395</v>
       </c>
-      <c r="L21" s="35">
-        <v>0</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="8">
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="8">
         <v>-122.4</v>
       </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>445</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>449</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>494</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>464</v>
       </c>
-      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
       <c r="V21"/>
-      <c r="W21" s="16"/>
-      <c r="X21">
+      <c r="X21" s="16"/>
+      <c r="Y21">
         <v>60</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>20</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="N22" s="51"/>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48" t="s">
+        <v>154</v>
+      </c>
       <c r="O22" s="49"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="P22" s="47"/>
+      <c r="S22"/>
+      <c r="T22" s="15"/>
+      <c r="V22"/>
+      <c r="W22" s="16"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4370,15 +4603,195 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="J23:M24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1&amp;".csv"</f>
+        <v>S01.csv</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B20" si="0">A2&amp;".csv"</f>
+        <v>S02.csv</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>S03.csv</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>S04.csv</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>S05.csv</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>S06.csv</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>S07.csv</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>S08.csv</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>S09.csv</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>S10.csv</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>S11.csv</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>S12.csv</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>S13.csv</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>S14.csv</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>S15.csv</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>S16.csv</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>S17.csv</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>S18.csv</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>S19.csv</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>S20.csv</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>6233</v>
       </c>
@@ -4395,12 +4808,13 @@
         <v>747960</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="40" t="s">
-        <v>132</v>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="39" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4417,7 +4831,7 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="K1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
@@ -4718,7 +5132,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -4738,187 +5152,187 @@
   <sheetData>
     <row r="7" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M65" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="14:14" x14ac:dyDescent="0.25">
